--- a/bi-backend/src/main/resources/测试数据.xlsx
+++ b/bi-backend/src/main/resources/测试数据.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="3" outlineLevelCol="3"/>
